--- a/src/test/java/inetBanking/testData/loginData.xlsx
+++ b/src/test/java/inetBanking/testData/loginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="14850" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="16095" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>mngr278722</t>
-  </si>
-  <si>
-    <t>hAvysYm</t>
-  </si>
-  <si>
     <t>mngr278721</t>
   </si>
   <si>
-    <t>mngr278723</t>
-  </si>
-  <si>
     <t>mngr278724</t>
   </si>
   <si>
@@ -43,9 +34,6 @@
     <t>hAvysYa</t>
   </si>
   <si>
-    <t>hAvysYs</t>
-  </si>
-  <si>
     <t>hAvysYd</t>
   </si>
   <si>
@@ -59,19 +47,43 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>mngr285596</t>
+  </si>
+  <si>
+    <t>tApYjes</t>
+  </si>
+  <si>
+    <t>mngr291912</t>
+  </si>
+  <si>
+    <t>enubYje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,9 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +423,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,62 +433,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
